--- a/StructureDefinition-profile-Practitioner.xlsx
+++ b/StructureDefinition-profile-Practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="305">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7693181-06:00</t>
+    <t>2026-02-09T22:05:43.2762987-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -425,38 +425,68 @@
     <t>Practitioner.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Practitioner.extension:deceased</t>
+  </si>
+  <si>
+    <t>deceased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Practitioner.deceased|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Practitioner.deceased[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates if the practitioner is deceased or not.</t>
+  </si>
+  <si>
+    <t>Element `Practitioner.deceased[x]` is will have a context of Practitioner based on following the parent source element upwards and mapping to `Practitioner`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Practitioner.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Practitioner.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -735,6 +765,9 @@
     <t>Practitioner.qualification.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -866,20 +899,13 @@
     <t>Practitioner.communication.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
+    <t>Practitioner.communication.extension:communication</t>
+  </si>
+  <si>
+    <t>communication</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Practitioner.communication|0.0.1-snapshot-3}
@@ -894,9 +920,7 @@
 The `PractitionerRole.communication` property should be used for publishing the languages that a practitioner is able to communicate with patients (on a per Organization/Role basis).</t>
   </si>
   <si>
-    <t>If no language is specified, this *implies* that the default local language is spoken.  If you need to convey proficiency for multiple modes, then you need multiple Practitioner.Communication associations.--For animals, language is not a relevant field, and should be absent from the instance.</t>
+    <t>Element `Practitioner.communication` is mapped to FHIR R4 element `Practitioner.communication`.</t>
   </si>
   <si>
     <t>Practitioner.communication.coding</t>
@@ -1255,7 +1279,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1264,9 +1288,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.96484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.77734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.96484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="13.453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2230,7 +2254,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2249,17 +2273,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2296,16 +2318,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2326,7 +2346,7 @@
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>77</v>
@@ -2340,43 +2360,43 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2424,7 +2444,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2433,7 +2453,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -2442,7 +2462,7 @@
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2453,14 +2473,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2473,23 +2493,25 @@
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>77</v>
@@ -2538,7 +2560,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2550,19 +2572,19 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -2581,7 +2603,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2601,18 +2623,14 @@
       <c r="M12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2662,7 +2680,7 @@
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
@@ -2671,13 +2689,13 @@
         <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>162</v>
@@ -2699,7 +2717,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -2728,7 +2746,9 @@
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="R13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2778,7 +2798,7 @@
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
@@ -2787,16 +2807,16 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>170</v>
       </c>
       <c r="AM13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -3047,7 +3067,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3059,17 +3079,19 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3094,13 +3116,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3124,7 +3146,7 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
@@ -3133,13 +3155,13 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3147,10 +3169,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3173,17 +3195,17 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3208,13 +3230,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3232,7 +3254,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3247,13 +3269,13 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3261,10 +3283,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3275,7 +3297,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3284,20 +3306,20 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3346,13 +3368,13 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
@@ -3361,13 +3383,13 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3375,10 +3397,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3401,16 +3423,18 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3458,7 +3482,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3473,13 +3497,13 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3487,10 +3511,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3501,7 +3525,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3513,13 +3537,13 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3570,28 +3594,28 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3599,21 +3623,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -3625,17 +3649,15 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -3684,25 +3706,25 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -3713,14 +3735,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3733,26 +3755,24 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -3800,7 +3820,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3818,7 +3838,7 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3829,14 +3849,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3849,23 +3869,25 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3914,7 +3936,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3926,13 +3948,13 @@
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -3943,10 +3965,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3954,10 +3976,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -3969,16 +3991,18 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>155</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4002,37 +4026,37 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="AG24" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4044,10 +4068,10 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4055,10 +4079,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4066,7 +4090,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -4081,18 +4105,16 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4116,13 +4138,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4140,10 +4162,10 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>88</v>
@@ -4158,10 +4180,10 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4169,10 +4191,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4195,16 +4217,18 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4252,7 +4276,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4270,10 +4294,10 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4281,10 +4305,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4295,7 +4319,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4307,20 +4331,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4344,13 +4364,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4368,13 +4388,13 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
@@ -4383,13 +4403,13 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4397,10 +4417,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4411,7 +4431,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4423,16 +4443,20 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4456,13 +4480,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4480,28 +4504,28 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4509,10 +4533,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4520,11 +4544,11 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4535,13 +4559,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4580,37 +4604,37 @@
         <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4621,10 +4645,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4647,17 +4671,15 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>276</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>134</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4694,19 +4716,19 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4735,12 +4757,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>77</v>
       </c>
@@ -4758,23 +4782,21 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -4822,7 +4844,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4834,13 +4856,13 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4851,10 +4873,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4865,7 +4887,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -4877,7 +4899,7 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>290</v>
@@ -4944,7 +4966,7 @@
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -4962,6 +4984,122 @@
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Practitioner.xlsx
+++ b/StructureDefinition-profile-Practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="309">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.2762987-06:00</t>
+    <t>2026-02-17T14:42:26.8802521-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -465,7 +465,7 @@
     <t>Indicates if the practitioner is deceased or not.</t>
   </si>
   <si>
-    <t>Element `Practitioner.deceased[x]` is will have a context of Practitioner based on following the parent source element upwards and mapping to `Practitioner`.</t>
+    <t>Element `Practitioner.deceased[x]` has a context of Practitioner based on following the parent source element upwards and mapping to `Practitioner`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -765,13 +765,28 @@
     <t>Practitioner.qualification.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.extension:qualification</t>
+  </si>
+  <si>
+    <t>qualification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Practitioner.qualification|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Practitioner.qualification from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The official qualifications, certifications, accreditations, training, licenses (and other types of educations/skills/capabilities) that authorize or otherwise pertain to the provision of care by the practitioner.++For example, a medical license issued by a medical board of licensure authorizing the practitioner to practice medicine within a certain locality.</t>
+  </si>
+  <si>
+    <t>Element `Practitioner.qualification` has is mapped to FHIR R4 element `Practitioner.qualification`, but has no comparisons.</t>
   </si>
   <si>
     <t>Practitioner.qualification.modifierExtension</t>
@@ -920,7 +935,7 @@
 The `PractitionerRole.communication` property should be used for publishing the languages that a practitioner is able to communicate with patients (on a per Organization/Role basis).</t>
   </si>
   <si>
-    <t>Element `Practitioner.communication` is mapped to FHIR R4 element `Practitioner.communication`.</t>
+    <t>Element `Practitioner.communication` has is mapped to FHIR R4 element `Practitioner.communication`, but has no comparisons.</t>
   </si>
   <si>
     <t>Practitioner.communication.coding</t>
@@ -1279,7 +1294,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3742,7 +3757,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3764,14 +3779,12 @@
         <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>134</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -3808,19 +3821,17 @@
         <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3838,7 +3849,7 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3849,14 +3860,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="D23" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3869,26 +3882,24 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -3936,7 +3947,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3945,7 +3956,7 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>139</v>
@@ -3954,7 +3965,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -3965,14 +3976,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3985,13 +3996,13 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>247</v>
@@ -3999,9 +4010,11 @@
       <c r="M24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4050,7 +4063,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4062,13 +4075,13 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4079,10 +4092,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4090,10 +4103,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4105,16 +4118,18 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4138,13 +4153,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4162,13 +4177,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4180,10 +4195,10 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4191,10 +4206,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4202,7 +4217,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>88</v>
@@ -4217,18 +4232,16 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4252,13 +4265,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4276,10 +4289,10 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>88</v>
@@ -4294,10 +4307,10 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4305,10 +4318,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4331,16 +4344,18 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4388,7 +4403,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4406,10 +4421,10 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4417,10 +4432,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4431,7 +4446,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4443,7 +4458,7 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>272</v>
@@ -4451,12 +4466,8 @@
       <c r="M28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4480,13 +4491,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4504,13 +4515,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -4519,13 +4530,13 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4533,10 +4544,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4547,7 +4558,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4559,16 +4570,20 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4592,13 +4607,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4616,28 +4631,28 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4645,10 +4660,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4659,7 +4674,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4671,13 +4686,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4716,37 +4731,37 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4757,14 +4772,12 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>77</v>
       </c>
@@ -4785,17 +4798,15 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>284</v>
+        <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4832,19 +4843,19 @@
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4873,12 +4884,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>77</v>
       </c>
@@ -4896,23 +4909,21 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>293</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -4960,7 +4971,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4972,13 +4983,13 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -4989,10 +5000,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5003,7 +5014,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5015,19 +5026,19 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5076,13 +5087,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5091,15 +5102,131 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN33" t="s" s="2">
+      <c r="O34" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Practitioner.xlsx
+++ b/StructureDefinition-profile-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8802521-06:00</t>
+    <t>2026-02-20T11:59:20.9205847-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Practitioner|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Practitioner</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,7 +455,7 @@
     <t>deceased</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Practitioner.deceased|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Practitioner.deceased}
 </t>
   </si>
   <si>
@@ -774,7 +774,7 @@
     <t>qualification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Practitioner.qualification|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Practitioner.qualification}
 </t>
   </si>
   <si>
@@ -840,7 +840,7 @@
     <t>Specific qualification the practitioner has to provide a service.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360|0360</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
   </si>
   <si>
     <t>./Qualifications.Value</t>
@@ -923,7 +923,7 @@
     <t>communication</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Practitioner.communication|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Practitioner.communication}
 </t>
   </si>
   <si>
@@ -1313,7 +1313,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.5703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.16015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-Practitioner.xlsx
+++ b/StructureDefinition-profile-Practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="305">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9205847-06:00</t>
+    <t>2026-02-21T13:36:54.3247105-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Practitioner</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Practitioner|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,7 +455,7 @@
     <t>deceased</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Practitioner.deceased}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Practitioner.deceased|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -765,28 +765,13 @@
     <t>Practitioner.qualification.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.extension:qualification</t>
-  </si>
-  <si>
-    <t>qualification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Practitioner.qualification}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Practitioner.qualification from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The official qualifications, certifications, accreditations, training, licenses (and other types of educations/skills/capabilities) that authorize or otherwise pertain to the provision of care by the practitioner.--For example, a medical license issued by a medical board of licensure authorizing the practitioner to practice medicine within a certain locality.</t>
-  </si>
-  <si>
-    <t>Element `Practitioner.qualification` has is mapped to FHIR R4 element `Practitioner.qualification`, but has no comparisons.</t>
   </si>
   <si>
     <t>Practitioner.qualification.modifierExtension</t>
@@ -840,7 +825,7 @@
     <t>Specific qualification the practitioner has to provide a service.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360|0360</t>
   </si>
   <si>
     <t>./Qualifications.Value</t>
@@ -923,7 +908,7 @@
     <t>communication</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Practitioner.communication}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Practitioner.communication|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -935,7 +920,7 @@
 The `PractitionerRole.communication` property should be used for publishing the languages that a practitioner is able to communicate with patients (on a per Organization/Role basis).</t>
   </si>
   <si>
-    <t>Element `Practitioner.communication` has is mapped to FHIR R4 element `Practitioner.communication`, but has no comparisons.</t>
+    <t>Element `Practitioner.communication` is mapped to FHIR R4 element `Practitioner.communication` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Practitioner.communication.coding</t>
@@ -1294,7 +1279,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1313,7 +1298,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.16015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.5703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3757,7 +3742,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3779,12 +3764,14 @@
         <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -3821,17 +3808,19 @@
         <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC22" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3849,7 +3838,7 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3860,16 +3849,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3882,24 +3869,26 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -3947,7 +3936,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3956,7 +3945,7 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>139</v>
@@ -3965,7 +3954,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -3976,14 +3965,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3996,13 +3985,13 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>247</v>
@@ -4010,11 +3999,9 @@
       <c r="M24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>152</v>
+        <v>249</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4063,7 +4050,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4075,13 +4062,13 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>131</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4092,10 +4079,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4103,10 +4090,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4118,18 +4105,16 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4153,13 +4138,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4177,13 +4162,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4195,10 +4180,10 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4206,10 +4191,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4217,7 +4202,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>88</v>
@@ -4232,16 +4217,18 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4265,34 +4252,34 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>88</v>
@@ -4307,10 +4294,10 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4318,10 +4305,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4344,18 +4331,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>267</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4403,7 +4388,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4421,10 +4406,10 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4432,10 +4417,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4446,7 +4431,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4458,7 +4443,7 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>272</v>
@@ -4466,8 +4451,12 @@
       <c r="M28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4491,13 +4480,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4515,13 +4504,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -4530,13 +4519,13 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4544,10 +4533,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4558,7 +4547,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4570,20 +4559,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4607,13 +4592,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4631,28 +4616,28 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4660,10 +4645,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4674,7 +4659,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4686,13 +4671,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
+        <v>135</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4731,37 +4716,37 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4772,12 +4757,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>77</v>
       </c>
@@ -4798,15 +4785,17 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>133</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4843,19 +4832,19 @@
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4884,14 +4873,12 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>77</v>
       </c>
@@ -4909,21 +4896,23 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -4971,7 +4960,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4983,13 +4972,13 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5000,10 +4989,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5014,7 +5003,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5026,19 +5015,19 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5087,13 +5076,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5102,131 +5091,15 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="P34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN34" t="s" s="2">
         <v>77</v>
       </c>
     </row>
